--- a/UT.Vend.BLL/HelperFiles/tblVendEmail.xlsx
+++ b/UT.Vend.BLL/HelperFiles/tblVendEmail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilson\Documents\Wilson\Documents\CISC475\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilson\Documents\Wilson\Documents\CISC475\CloneGitHub\VolTeerNET\UT.Vend.BLL\HelperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Volteer.Vend.tblEmail</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>EmailID</t>
   </si>
@@ -66,6 +63,12 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>VolTeer.Vend.tblVendEmail</t>
   </si>
 </sst>
 </file>
@@ -394,196 +397,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"INSERT Into " &amp; $A$2 &amp;" (" &amp; $B$1 &amp; ", " &amp; $C$1 &amp; ", " &amp; $D$1 &amp; ") VALUES('" &amp; B2 &amp; "', '" &amp; C2 &amp; "', '" &amp;D2&amp; "')"</f>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('1', 'new@email.com', '1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E11" si="0">"INSERT Into " &amp; $A$2 &amp;" (" &amp; $B$1 &amp; ", " &amp; $C$1 &amp; ", " &amp; $D$1 &amp; ") VALUES('" &amp; B3 &amp; "', '" &amp; C3 &amp; "', '" &amp;D3&amp; "')"</f>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('2', 'test3', '0')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('3', 'test3', '1')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D3" t="str">
-        <f>"INSERT Into " &amp; $A$1 &amp;" (" &amp; $A$2 &amp; ", " &amp; $B$2 &amp; ", " &amp; $C$2 &amp; ") VALUES(" &amp; A3 &amp; ", " &amp; B3 &amp; ", " &amp;C3&amp; ")"</f>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(1, new@email.com, 1)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('4', 'test1@aol.com', '1')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('5', 'cisc475@udel.edu', '1')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D12" si="0">"INSERT Into " &amp; $A$1 &amp;" (" &amp; $A$2 &amp; ", " &amp; $B$2 &amp; ", " &amp; $C$2 &amp; ") VALUES(" &amp; A4 &amp; ", " &amp; B4 &amp; ", " &amp;C4&amp; ")"</f>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(2, test3, 0)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('6', '2co.org', '0')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('7', 'email', '0')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(3, test3, 1)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(4, test1@aol.com, 1)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(5, cisc475@udel.edu, 1)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('8', 'programing@udel.edu', '1')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('9', '12345@numbers.com', '0')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(6, 2co.org, 0)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(7, email, 0)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(8, programing@udel.edu, 1)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(9, 12345@numbers.com, 0)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT Into Volteer.Vend.tblEmail (EmailID, EmailAddr, ActiveFlg) VALUES(10, wow@yahoo.com, 0)</v>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT Into VolTeer.Vend.tblVendEmail (EmailID, EmailAddr, ActiveFlg) VALUES('10', 'wow@yahoo.com', '0')</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C11" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
